--- a/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Ceguera (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/upto time/Ceguera (UPTO).xlsx
@@ -590,67 +590,67 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03786877421454528</v>
+        <v>0.03514427860696504</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2132063492063487</v>
+        <v>0.2279999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5445578772802643</v>
+        <v>0.5186865671641782</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0006153846153846154</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.289866666666667</v>
+        <v>1.252</v>
       </c>
       <c r="M2" t="n">
-        <v>1.169515920398011</v>
+        <v>1.158149253731342</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1841222222222218</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>2.558857142857141</v>
+        <v>2.547999999999998</v>
       </c>
       <c r="P2" t="n">
-        <v>1.564161660313152</v>
+        <v>1.566805970149253</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3999999999999992</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>3.083666329966329</v>
+        <v>3.124</v>
       </c>
       <c r="S2" t="n">
-        <v>1.575395253889281</v>
+        <v>1.562567164179104</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4030478725549506</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>3.106959584859585</v>
+        <v>3.056</v>
       </c>
       <c r="V2" t="n">
-        <v>1.193003364131722</v>
+        <v>1.20009950248756</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2461193014181839</v>
+        <v>0.34</v>
       </c>
       <c r="X2" t="n">
-        <v>2.311271428571428</v>
+        <v>2.432000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3320126747216283</v>
+        <v>0.3401194029850732</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8932432315001563</v>
+        <v>0.9719999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.140961857379761e-05</v>
+        <v>0.0005970149253731341</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -691,49 +691,49 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01072044868953744</v>
+        <v>0.007820895522388047</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1538774750994264</v>
+        <v>0.08400000000000002</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01954274371289292</v>
+        <v>0.01856716417910444</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2439449735449734</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02866073464954054</v>
+        <v>0.02935323383084565</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="V3" t="n">
-        <v>0.02214212036374128</v>
+        <v>0.02246766169154222</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.008402372553982915</v>
+        <v>0.007999999999999986</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1784831482293546</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="4">
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.140961857379761e-05</v>
+        <v>0.001432835820895517</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -774,49 +774,49 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01523642232560141</v>
+        <v>0.02206965174129348</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.191144141766093</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03997829691038639</v>
+        <v>0.0426268656716417</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05825409855484478</v>
+        <v>0.06049751243781093</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.392</v>
+        <v>0.3919999999999999</v>
       </c>
       <c r="V4" t="n">
-        <v>0.04697687912354279</v>
+        <v>0.04658706467661686</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.311654545454545</v>
+        <v>0.316</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01597647835856788</v>
+        <v>0.01349253731343282</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1847413486031526</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.001532338308457711</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -848,58 +848,58 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01280719504603612</v>
+        <v>0.01422885572139304</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1879668308702792</v>
+        <v>0.192</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02058179669936738</v>
+        <v>0.01972139303482583</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2005637350463493</v>
+        <v>0.2</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03241619223108054</v>
+        <v>0.02949253731343278</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2507179894179893</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03075506679175169</v>
+        <v>0.03307462686567156</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2059999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.02905805477638366</v>
+        <v>0.0328159203980099</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3139999999999994</v>
+        <v>0.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01102236049688799</v>
+        <v>0.01058706467661691</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1910563864954211</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="6">
@@ -922,67 +922,67 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005370377507762387</v>
+        <v>0.0085373134328358</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1273492063492061</v>
+        <v>0.1320000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05660033979287697</v>
+        <v>0.05323383084577096</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3491235379000086</v>
+        <v>0.2839999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1245062169312168</v>
+        <v>0.1254129353233829</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3963805566982038</v>
+        <v>0.42</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1806089218962351</v>
+        <v>0.1824477611940296</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6327148148148136</v>
+        <v>0.6400000000000005</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2529087893864005</v>
+        <v>0.2493731343283574</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.7719809523809524</v>
+        <v>0.78</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2104558373356876</v>
+        <v>0.2116218905472631</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6347191919191925</v>
+        <v>0.7320000000000003</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.07032781606104445</v>
+        <v>0.07315422885572138</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3970230232133449</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="7">
@@ -1014,58 +1014,58 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0406471452262496</v>
+        <v>0.04392039800995019</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2039999999999999</v>
+        <v>0.2079999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4860522388059695</v>
+        <v>0.4778706467661685</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01957777777777778</v>
+        <v>0.004</v>
       </c>
       <c r="O7" t="n">
-        <v>1.407999999999999</v>
+        <v>1.391999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>1.07620895522388</v>
+        <v>1.09404975124378</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1419999999999998</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>2.413777777777776</v>
+        <v>2.424000000000002</v>
       </c>
       <c r="S7" t="n">
-        <v>1.357810945273632</v>
+        <v>1.357373134328358</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2777665024630542</v>
+        <v>0.3240000000000001</v>
       </c>
       <c r="U7" t="n">
-        <v>2.833619047619047</v>
+        <v>2.819999999999999</v>
       </c>
       <c r="V7" t="n">
-        <v>1.103133333333334</v>
+        <v>1.102786069651739</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2523893352256792</v>
+        <v>0.2559999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>2.370989682539685</v>
+        <v>2.380000000000002</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3218873410724148</v>
+        <v>0.3118805970149245</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9275278274514962</v>
+        <v>0.8799999999999997</v>
       </c>
     </row>
     <row r="8">
@@ -1100,55 +1100,55 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02128571428571429</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2.493298389007332</v>
+        <v>2.476258706467653</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9618666666666663</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>4.559999999999999</v>
+        <v>4.539999999999999</v>
       </c>
       <c r="P8" t="n">
-        <v>3.436972719734653</v>
+        <v>3.489054726368151</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.466885714285715</v>
+        <v>1.516</v>
       </c>
       <c r="R8" t="n">
-        <v>5.714036652236648</v>
+        <v>5.784000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>2.855847583511001</v>
+        <v>2.878567164179091</v>
       </c>
       <c r="T8" t="n">
-        <v>1.237375246975247</v>
+        <v>1.220000000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>4.91782852474323</v>
+        <v>5.067999999999999</v>
       </c>
       <c r="V8" t="n">
-        <v>1.757398497052974</v>
+        <v>1.758587064676617</v>
       </c>
       <c r="W8" t="n">
-        <v>0.528451863741684</v>
+        <v>0.552</v>
       </c>
       <c r="X8" t="n">
-        <v>3.426492640692641</v>
+        <v>3.235999999999999</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4721609563460302</v>
+        <v>0.4461492537313424</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.166526925541631</v>
+        <v>1.192000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1171,67 +1171,67 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0008955223880596999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02703520567326531</v>
+        <v>0.02318407960198997</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2089235379000084</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08566605054702058</v>
+        <v>0.0805174129353233</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4064877828054299</v>
+        <v>0.4519999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1580832134421686</v>
+        <v>0.1482189054726367</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4898925925925924</v>
+        <v>0.4879999999999999</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1956416252072962</v>
+        <v>0.1951840796019895</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.7073142857142859</v>
+        <v>0.6720000000000005</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1829097704120091</v>
+        <v>0.1878805970149252</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6222333333333342</v>
+        <v>0.6200000000000007</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05834844428117533</v>
+        <v>0.05988059701492528</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.3712314230980613</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
@@ -1263,58 +1263,58 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7540494195688214</v>
+        <v>0.7705472636815907</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1026380952380953</v>
+        <v>0.1640000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>1.655333333333333</v>
+        <v>1.647999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>3.360033543393396</v>
+        <v>3.364238805970141</v>
       </c>
       <c r="N10" t="n">
-        <v>1.407867412712228</v>
+        <v>1.516</v>
       </c>
       <c r="O10" t="n">
-        <v>5.77570674612401</v>
+        <v>5.576000000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>3.09638601688133</v>
+        <v>3.208915422885559</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.287159748180957</v>
+        <v>1.376</v>
       </c>
       <c r="R10" t="n">
-        <v>5.261796922489726</v>
+        <v>5.459999999999996</v>
       </c>
       <c r="S10" t="n">
-        <v>2.580619205356935</v>
+        <v>2.604437810945259</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9687442822511055</v>
+        <v>1.140000000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>4.519484182199784</v>
+        <v>4.223999999999998</v>
       </c>
       <c r="V10" t="n">
-        <v>1.638447448717382</v>
+        <v>1.650985074626864</v>
       </c>
       <c r="W10" t="n">
-        <v>0.4513051648984108</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>2.955453454878456</v>
+        <v>3.056</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4124071991169285</v>
+        <v>0.4122985074626863</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.023529141026437</v>
+        <v>1.016</v>
       </c>
     </row>
     <row r="11">
@@ -1337,67 +1337,67 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1207691542288557</v>
+        <v>0.1455323383084576</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5611111111111103</v>
+        <v>0.6200000000000003</v>
       </c>
       <c r="J11" t="n">
-        <v>1.302388059701491</v>
+        <v>1.354805970149252</v>
       </c>
       <c r="K11" t="n">
-        <v>0.35759010989011</v>
+        <v>0.3679999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v>2.786266666666666</v>
+        <v>2.836</v>
       </c>
       <c r="M11" t="n">
-        <v>2.299418479033397</v>
+        <v>2.276159203980091</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7950158730158718</v>
+        <v>0.7639999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>4.452990687090686</v>
+        <v>4.348000000000002</v>
       </c>
       <c r="P11" t="n">
-        <v>2.408755666501949</v>
+        <v>2.41914427860695</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9021666666666662</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>4.459702609046722</v>
+        <v>4.328000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>2.265197003079833</v>
+        <v>2.194746268656709</v>
       </c>
       <c r="T11" t="n">
-        <v>0.7290000000000003</v>
+        <v>0.9039999999999998</v>
       </c>
       <c r="U11" t="n">
-        <v>4.120107936507936</v>
+        <v>3.932000000000001</v>
       </c>
       <c r="V11" t="n">
-        <v>1.468878162163982</v>
+        <v>1.463641791044776</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4501955041258703</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>2.785757378547381</v>
+        <v>2.703999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3503034357575321</v>
+        <v>0.3421293532338304</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.030487732326456</v>
+        <v>0.9399999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -1411,76 +1411,76 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0214144495299078</v>
+        <v>0.02587064676616914</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2301111111111109</v>
+        <v>0.236</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1873880597014923</v>
+        <v>0.1968955223880597</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6071152958152951</v>
+        <v>0.6360000000000006</v>
       </c>
       <c r="J12" t="n">
-        <v>0.416099502487561</v>
+        <v>0.4294925373134317</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.025561904761905</v>
+        <v>1.072</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6625661691542288</v>
+        <v>0.6792437810945273</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.735999999999998</v>
+        <v>1.759999999999998</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8407470978441112</v>
+        <v>0.8575124378109432</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="R12" t="n">
-        <v>1.908000000000001</v>
+        <v>1.96</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8268855721393016</v>
+        <v>0.8694527363184068</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01153726273726274</v>
+        <v>0.02</v>
       </c>
       <c r="U12" t="n">
-        <v>2.104133333333334</v>
+        <v>2.104000000000001</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6638407960198996</v>
+        <v>0.6730348258706456</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.517910966810966</v>
+        <v>1.58</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1685674219460291</v>
+        <v>0.1656318407960198</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.6007508417508409</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="13">
@@ -1503,67 +1503,67 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.891328026533992</v>
+        <v>1.919263681592037</v>
       </c>
       <c r="H13" t="n">
-        <v>0.598939393939393</v>
+        <v>0.6080000000000005</v>
       </c>
       <c r="I13" t="n">
-        <v>3.773333333333337</v>
+        <v>3.776000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>3.348697107875104</v>
+        <v>3.399044776119392</v>
       </c>
       <c r="K13" t="n">
-        <v>1.430324104469218</v>
+        <v>1.532000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>5.697530571409268</v>
+        <v>5.92</v>
       </c>
       <c r="M13" t="n">
-        <v>3.03154211713155</v>
+        <v>3.02185074626865</v>
       </c>
       <c r="N13" t="n">
-        <v>1.228974748559957</v>
+        <v>1.176</v>
       </c>
       <c r="O13" t="n">
-        <v>5.396068085543627</v>
+        <v>5.399999999999997</v>
       </c>
       <c r="P13" t="n">
-        <v>2.699001519817926</v>
+        <v>2.628179104477605</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.084241815889502</v>
+        <v>1.048</v>
       </c>
       <c r="R13" t="n">
-        <v>4.71053090983091</v>
+        <v>4.819999999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>2.123965080533458</v>
+        <v>2.074288557213915</v>
       </c>
       <c r="T13" t="n">
-        <v>0.758516761824347</v>
+        <v>0.7160000000000002</v>
       </c>
       <c r="U13" t="n">
-        <v>3.731534065934065</v>
+        <v>3.715999999999998</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31985858316317</v>
+        <v>1.325930348258706</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3681235152353761</v>
+        <v>0.352</v>
       </c>
       <c r="X13" t="n">
-        <v>2.53606832867232</v>
+        <v>2.548</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.3451274001889532</v>
+        <v>0.3153233830845759</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.9031227379536689</v>
+        <v>0.8919999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1586,67 +1586,67 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2373829740187934</v>
+        <v>0.2612736318407946</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7906666666666649</v>
+        <v>0.8199999999999998</v>
       </c>
       <c r="J14" t="n">
-        <v>2.283040796019891</v>
+        <v>2.244517412935314</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8592520146520144</v>
+        <v>0.8279999999999997</v>
       </c>
       <c r="L14" t="n">
-        <v>4.363788888888887</v>
+        <v>4.279999999999997</v>
       </c>
       <c r="M14" t="n">
-        <v>2.936113415629496</v>
+        <v>2.91428855721392</v>
       </c>
       <c r="N14" t="n">
-        <v>1.204209227047462</v>
+        <v>1.272000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>5.090891631897515</v>
+        <v>5.080000000000004</v>
       </c>
       <c r="P14" t="n">
-        <v>2.864330342625857</v>
+        <v>2.804318407960188</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.115622189575131</v>
+        <v>1.116000000000001</v>
       </c>
       <c r="R14" t="n">
-        <v>5.04956005073358</v>
+        <v>4.720000000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>2.258293078466575</v>
+        <v>2.250049751243772</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9362684791692237</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="U14" t="n">
-        <v>4.180799855699856</v>
+        <v>3.976000000000001</v>
       </c>
       <c r="V14" t="n">
-        <v>1.473033591367173</v>
+        <v>1.4516815920398</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4824030518301994</v>
+        <v>0.4119999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>2.815322003904973</v>
+        <v>2.799999999999999</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.348556236518084</v>
+        <v>0.3303681592039791</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.036717759594539</v>
+        <v>1.056</v>
       </c>
     </row>
     <row r="15">
@@ -1660,76 +1660,76 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.001592039800995022</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01124932729882977</v>
+        <v>0.01196019900497511</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0001025641025641026</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02414546407158342</v>
+        <v>0.02035820895522386</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02967644326480176</v>
+        <v>0.02790049751243769</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2773333333333332</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03927784238106297</v>
+        <v>0.03795024875621875</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2022433862433858</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04028029269906717</v>
+        <v>0.04187064676616908</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2648160173160173</v>
+        <v>0.304</v>
       </c>
       <c r="V15" t="n">
-        <v>0.03459834740087294</v>
+        <v>0.03448756218905465</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2179999999999996</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01254217323122794</v>
+        <v>0.01379104477611938</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1893645605943951</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -1743,76 +1743,76 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.00017910447761194</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005820788843248348</v>
+        <v>0.008059701492537289</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1507777777777775</v>
+        <v>0.1280000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.05514042508072347</v>
+        <v>0.04865671641791027</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3592851540616247</v>
+        <v>0.2639999999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1253590953960355</v>
+        <v>0.1212935323383083</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5128980392156863</v>
+        <v>0.4480000000000001</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1757470777978239</v>
+        <v>0.1798407960199003</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5849999999999995</v>
+        <v>0.6120000000000003</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2562409618573788</v>
+        <v>0.2413333333333326</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7457142857142861</v>
+        <v>0.7560000000000002</v>
       </c>
       <c r="V16" t="n">
-        <v>0.2260867843323059</v>
+        <v>0.2127960199004971</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7556279220779216</v>
+        <v>0.7480000000000002</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.07586677570099923</v>
+        <v>0.07245771144278605</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3998104691007907</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="17">
@@ -1826,76 +1826,76 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01968163213539887</v>
+        <v>0.02314427860696515</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1906666666666662</v>
+        <v>0.22</v>
       </c>
       <c r="G17" t="n">
-        <v>0.180701492537313</v>
+        <v>0.1796815920398008</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5968603174603166</v>
+        <v>0.6120000000000004</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3783174129353222</v>
+        <v>0.4153631840796008</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.074450793650794</v>
+        <v>1.132</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6434131011608621</v>
+        <v>0.6447363184079596</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.619999999999999</v>
+        <v>1.659999999999999</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7991310116086229</v>
+        <v>0.8116616915422867</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1159999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="R17" t="n">
-        <v>1.734399999999998</v>
+        <v>1.768</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8122990049751229</v>
+        <v>0.8217512437810925</v>
       </c>
       <c r="T17" t="n">
-        <v>0.09485689865689867</v>
+        <v>0.108</v>
       </c>
       <c r="U17" t="n">
-        <v>1.631</v>
+        <v>1.916</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6528407960198982</v>
+        <v>0.6550248756218893</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.487718253968254</v>
+        <v>1.483999999999999</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1540079886761478</v>
+        <v>0.1694925373134327</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.6652397306397297</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="18">
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5.140961857379761e-05</v>
+        <v>0.0008159203980099485</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1936,49 +1936,49 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01511099642480237</v>
+        <v>0.01713432835820893</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.191144141766093</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03973333126243566</v>
+        <v>0.03685572139303472</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="S18" t="n">
-        <v>0.05885855247571659</v>
+        <v>0.06157213930348251</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.392</v>
+        <v>0.3919999999999999</v>
       </c>
       <c r="V18" t="n">
-        <v>0.04467321293963077</v>
+        <v>0.04421890547263672</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.2503212121212117</v>
+        <v>0.2479999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.01698074275089197</v>
+        <v>0.0165373134328358</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.1971826184444224</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1992,76 +1992,76 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1275094132512042</v>
+        <v>0.1521592039800994</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.624666666666666</v>
+        <v>0.6560000000000005</v>
       </c>
       <c r="G19" t="n">
-        <v>1.360349364289658</v>
+        <v>1.363004975124377</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2666021164021164</v>
+        <v>0.2439999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>2.761666666666672</v>
+        <v>2.827999999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>2.400678606965164</v>
+        <v>2.395522388059691</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8167472527472525</v>
+        <v>0.8159999999999998</v>
       </c>
       <c r="L19" t="n">
-        <v>4.386933333333332</v>
+        <v>4.383999999999998</v>
       </c>
       <c r="M19" t="n">
-        <v>2.604500968600215</v>
+        <v>2.65488557213929</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8912222222222217</v>
+        <v>1.096</v>
       </c>
       <c r="O19" t="n">
-        <v>4.407753246753247</v>
+        <v>4.400000000000003</v>
       </c>
       <c r="P19" t="n">
-        <v>2.309314753945742</v>
+        <v>2.377950248756216</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.931283333333333</v>
+        <v>0.9639999999999997</v>
       </c>
       <c r="R19" t="n">
-        <v>4.242573612117728</v>
+        <v>4.219999999999998</v>
       </c>
       <c r="S19" t="n">
-        <v>2.026483278137001</v>
+        <v>2.030587064676613</v>
       </c>
       <c r="T19" t="n">
-        <v>0.72461494747083</v>
+        <v>0.752</v>
       </c>
       <c r="U19" t="n">
-        <v>3.560385873015871</v>
+        <v>3.599999999999998</v>
       </c>
       <c r="V19" t="n">
-        <v>1.24871109406072</v>
+        <v>1.2718407960199</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3529822070251836</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="X19" t="n">
-        <v>2.407893872836209</v>
+        <v>2.440000000000002</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3212288772587271</v>
+        <v>0.336696517412934</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.8890391898988316</v>
+        <v>0.9719999999999999</v>
       </c>
     </row>
     <row r="20">
@@ -2075,76 +2075,76 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01601066469673492</v>
+        <v>0.009771144278606959</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1982222222222217</v>
+        <v>0.196</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05008049878074745</v>
+        <v>0.05428855721393034</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4003207570207569</v>
+        <v>0.3679999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1364618667126129</v>
+        <v>0.141273631840796</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5623473474238181</v>
+        <v>0.5920000000000004</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1895148337842363</v>
+        <v>0.1957213930348254</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5984313725490201</v>
+        <v>0.6200000000000006</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2607628797404903</v>
+        <v>0.2644378109452717</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.8144444444444426</v>
+        <v>0.8199999999999997</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3104427228934679</v>
+        <v>0.3143880597014915</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9805333333333333</v>
+        <v>0.9919999999999999</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2362632235647149</v>
+        <v>0.2292537313432823</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.7340096681096679</v>
+        <v>0.6880000000000004</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.07541941088209737</v>
+        <v>0.06871641791044764</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.3998104691007907</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -2158,52 +2158,52 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.0004179104477611932</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01227604819171981</v>
+        <v>0.01201990049751243</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001025641025641026</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03879964653432601</v>
+        <v>0.03856716417910445</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2127999999999999</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05268389742715896</v>
+        <v>0.05633830845771138</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3183946383144619</v>
+        <v>0.36</v>
       </c>
       <c r="P21" t="n">
-        <v>0.08502508632881758</v>
+        <v>0.0827064676616914</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3986666666666657</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0943006741185845</v>
+        <v>0.09410945273631834</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2212,22 +2212,22 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="V21" t="n">
-        <v>0.07577580644894062</v>
+        <v>0.06907462686567155</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.3964525641025635</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02192643878181399</v>
+        <v>0.02123383084577108</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.1955957190957187</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2259,58 +2259,58 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.402271310116077</v>
+        <v>2.401233830845763</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8575333333333335</v>
+        <v>0.9319999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>4.359666666666667</v>
+        <v>4.352000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>3.406575493544957</v>
+        <v>3.484696517412929</v>
       </c>
       <c r="N22" t="n">
-        <v>1.406833916593965</v>
+        <v>1.444</v>
       </c>
       <c r="O22" t="n">
-        <v>5.8473083230495</v>
+        <v>5.892000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>3.068902719137387</v>
+        <v>3.050646766169145</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.299916955266955</v>
+        <v>1.328</v>
       </c>
       <c r="R22" t="n">
-        <v>5.121825281474934</v>
+        <v>5.039999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>2.493135844836091</v>
+        <v>2.450129353233822</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9686333035401822</v>
+        <v>0.9519999999999996</v>
       </c>
       <c r="U22" t="n">
-        <v>4.368364617727972</v>
+        <v>4.471999999999996</v>
       </c>
       <c r="V22" t="n">
-        <v>1.588954495805178</v>
+        <v>1.565194029850746</v>
       </c>
       <c r="W22" t="n">
-        <v>0.463079004924783</v>
+        <v>0.4159999999999998</v>
       </c>
       <c r="X22" t="n">
-        <v>2.98437124829262</v>
+        <v>3.044</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3788100181936871</v>
+        <v>0.3779502487562186</v>
       </c>
       <c r="Z22" t="n">
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.017880373621027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2324,76 +2324,76 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01522793219061933</v>
+        <v>0.0028457711442786</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.06043174603174604</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01930930469015044</v>
+        <v>0.0143283582089552</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2002666666666662</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02647380445620123</v>
+        <v>0.02294527363184077</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1997066666666666</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03212708391988454</v>
+        <v>0.03199999999999992</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2103614215242122</v>
+        <v>0.204</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0338429925072125</v>
+        <v>0.03383084577114417</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2147259259259255</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03935529922929756</v>
+        <v>0.04007960199004966</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2303837828837827</v>
+        <v>0.2359999999999999</v>
       </c>
       <c r="V23" t="n">
-        <v>0.02378336786209911</v>
+        <v>0.02226865671641784</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.2019999999999996</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.009240361618675924</v>
+        <v>0.008995024875621881</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.1979940227128227</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -2407,76 +2407,76 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.0001194029850746268</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01347546510101441</v>
+        <v>0.008378109452736295</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1425555555555553</v>
+        <v>0.1320000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06325766549647133</v>
+        <v>0.04883582089552221</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.383447619047619</v>
+        <v>0.2639999999999999</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1253590953960355</v>
+        <v>0.1209950248756217</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5142313725490196</v>
+        <v>0.4480000000000001</v>
       </c>
       <c r="P24" t="n">
-        <v>0.1763241922256846</v>
+        <v>0.1801791044776118</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.5823333333333328</v>
+        <v>0.6120000000000003</v>
       </c>
       <c r="S24" t="n">
-        <v>0.2544835820895512</v>
+        <v>0.2394427860696511</v>
       </c>
       <c r="T24" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.7537142857142861</v>
+        <v>0.7560000000000002</v>
       </c>
       <c r="V24" t="n">
-        <v>0.2234447168917313</v>
+        <v>0.2115820895522384</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.7234969696969693</v>
+        <v>0.7480000000000002</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.07064499986838291</v>
+        <v>0.07184079601990047</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.3998104691007907</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="25">
@@ -2508,58 +2508,58 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.007090339611618351</v>
+        <v>0.008796019900497512</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2013333333333333</v>
+        <v>0.196</v>
       </c>
       <c r="M25" t="n">
-        <v>0.05767454916559384</v>
+        <v>0.05170149253731337</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3283612720612721</v>
+        <v>0.272</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1220766258893123</v>
+        <v>0.1250746268656716</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.5366621848739495</v>
+        <v>0.532</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1763492971649688</v>
+        <v>0.1808159203980098</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.6000000000000005</v>
+        <v>0.6040000000000005</v>
       </c>
       <c r="V25" t="n">
-        <v>0.1802888985806894</v>
+        <v>0.1768358208955223</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.5980000000000009</v>
+        <v>0.5960000000000005</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.05478774154186561</v>
+        <v>0.05625870646766158</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.3614501340167722</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.0003980099502487552</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2582,67 +2582,67 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01389803350325736</v>
+        <v>0.01418905472636814</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0001025641025641026</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.188</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03511260777363536</v>
+        <v>0.03836815920398005</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1995687356321839</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="M26" t="n">
-        <v>0.05016407589987475</v>
+        <v>0.05393034825870637</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2691680640506783</v>
+        <v>0.356</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07683629076838029</v>
+        <v>0.07677611940298505</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.3959999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0797194239977821</v>
+        <v>0.08091542288557202</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.398</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="V26" t="n">
-        <v>0.07314206092415035</v>
+        <v>0.07687562189054717</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.3695636030636026</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01841595671319154</v>
+        <v>0.01982089552238794</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.1997417417417413</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -2656,76 +2656,76 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.94866821448314</v>
+        <v>1.956199004975122</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4940344322344323</v>
+        <v>0.4879999999999998</v>
       </c>
       <c r="F27" t="n">
-        <v>3.740000000000003</v>
+        <v>3.756000000000002</v>
       </c>
       <c r="G27" t="n">
-        <v>3.457269762299608</v>
+        <v>3.449970149253716</v>
       </c>
       <c r="H27" t="n">
-        <v>1.426596373996373</v>
+        <v>1.308000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>5.833358730158719</v>
+        <v>5.852000000000003</v>
       </c>
       <c r="J27" t="n">
-        <v>3.093290225639473</v>
+        <v>3.089990049751237</v>
       </c>
       <c r="K27" t="n">
-        <v>1.323358705458628</v>
+        <v>1.240000000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>5.225149206349206</v>
+        <v>5.267999999999996</v>
       </c>
       <c r="M27" t="n">
-        <v>2.762108526989861</v>
+        <v>2.773512437810937</v>
       </c>
       <c r="N27" t="n">
-        <v>0.9687836940836941</v>
+        <v>0.8719999999999998</v>
       </c>
       <c r="O27" t="n">
-        <v>4.962260291995586</v>
+        <v>4.972000000000001</v>
       </c>
       <c r="P27" t="n">
-        <v>2.338216327094675</v>
+        <v>2.354507462686554</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.8648939903234012</v>
+        <v>0.956</v>
       </c>
       <c r="R27" t="n">
-        <v>4.230805184667332</v>
+        <v>4.092</v>
       </c>
       <c r="S27" t="n">
-        <v>1.842193066055005</v>
+        <v>1.829353233830846</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6119249767776086</v>
+        <v>0.6200000000000004</v>
       </c>
       <c r="U27" t="n">
-        <v>3.43839555962556</v>
+        <v>3.388000000000003</v>
       </c>
       <c r="V27" t="n">
-        <v>1.192984770149695</v>
+        <v>1.19339303482587</v>
       </c>
       <c r="W27" t="n">
-        <v>0.3187980034594833</v>
+        <v>0.364</v>
       </c>
       <c r="X27" t="n">
-        <v>2.393483232468017</v>
+        <v>2.404000000000002</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.288682563373607</v>
+        <v>0.2867064676616909</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.8483456092309613</v>
+        <v>0.8239999999999997</v>
       </c>
     </row>
     <row r="28">
@@ -2748,67 +2748,67 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.001731343283582084</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2197731343283571</v>
+        <v>0.2320597014925361</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7999999999999997</v>
+        <v>0.8199999999999997</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8309452736318381</v>
+        <v>0.8403781094527349</v>
       </c>
       <c r="N28" t="n">
-        <v>0.1598888888888886</v>
+        <v>0.1640000000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>1.976</v>
+        <v>1.968</v>
       </c>
       <c r="P28" t="n">
-        <v>1.405164179104478</v>
+        <v>1.396039800995023</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3991999999999993</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="R28" t="n">
-        <v>2.923022222222226</v>
+        <v>2.839999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>1.543005472636813</v>
+        <v>1.530985074626865</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3683157088122606</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="U28" t="n">
-        <v>3.049009523809524</v>
+        <v>3.028</v>
       </c>
       <c r="V28" t="n">
-        <v>1.226446932006633</v>
+        <v>1.231482587064676</v>
       </c>
       <c r="W28" t="n">
-        <v>0.2692180931550562</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>2.546099999999997</v>
+        <v>2.511999999999999</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.3190514096185721</v>
+        <v>0.3065870646766155</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.9361501894588024</v>
+        <v>0.8199999999999997</v>
       </c>
     </row>
     <row r="29">
@@ -2822,76 +2822,76 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0131473339241224</v>
+        <v>0.008557213930348247</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.164165079365079</v>
+        <v>0.1640000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02291951809016481</v>
+        <v>0.01677611940298505</v>
       </c>
       <c r="H29" t="n">
-        <v>0.001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03459769406933581</v>
+        <v>0.03609950248756216</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2139999999999999</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0369663856905296</v>
+        <v>0.0413134328358208</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2574666666666666</v>
+        <v>0.328</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0357604444840893</v>
+        <v>0.03476616915422868</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.201481481481481</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04323683307324308</v>
+        <v>0.04266666666666655</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2455333333333333</v>
+        <v>0.2439999999999999</v>
       </c>
       <c r="V29" t="n">
-        <v>0.02936099301472428</v>
+        <v>0.03518407960198991</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0.2399999999999996</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.01037745692671064</v>
+        <v>0.01076616915422884</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.1963737886259219</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -2905,76 +2905,76 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.0003383084577114428</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07412748953644462</v>
+        <v>0.06101492537313416</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0001025641025641026</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4069238095238087</v>
+        <v>0.3759999999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2682336650082905</v>
+        <v>0.2791641791044762</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6643555555555557</v>
+        <v>0.7519999999999998</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5289223169864957</v>
+        <v>0.5129950248756208</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.255</v>
+        <v>1.272</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7206227197346596</v>
+        <v>0.7066268656716415</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="R30" t="n">
-        <v>1.746304761904765</v>
+        <v>1.767999999999998</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7882111111111104</v>
+        <v>0.790208955223879</v>
       </c>
       <c r="T30" t="n">
-        <v>0.07448575868575869</v>
+        <v>0.108</v>
       </c>
       <c r="U30" t="n">
-        <v>1.611399999999999</v>
+        <v>1.808</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5937433901918966</v>
+        <v>0.5901094527363173</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>1.464956565656566</v>
+        <v>1.452</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.1538685588411957</v>
+        <v>0.167820895522388</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.6929063973063964</v>
+        <v>0.7040000000000005</v>
       </c>
     </row>
     <row r="31">
@@ -3006,58 +3006,58 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.20596351575456</v>
+        <v>1.206109452736318</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1983333333333333</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="L31" t="n">
         <v>2.603999999999997</v>
       </c>
       <c r="M31" t="n">
-        <v>2.878179827055192</v>
+        <v>2.818129353233822</v>
       </c>
       <c r="N31" t="n">
-        <v>1.095403038138333</v>
+        <v>1.04</v>
       </c>
       <c r="O31" t="n">
-        <v>5.059112554112555</v>
+        <v>5.075999999999996</v>
       </c>
       <c r="P31" t="n">
-        <v>2.893905566999895</v>
+        <v>2.858865671641782</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.226478290423029</v>
+        <v>1.232000000000001</v>
       </c>
       <c r="R31" t="n">
-        <v>4.991819470170022</v>
+        <v>5.027999999999999</v>
       </c>
       <c r="S31" t="n">
-        <v>2.498830206748364</v>
+        <v>2.513313432835814</v>
       </c>
       <c r="T31" t="n">
-        <v>0.952607642596541</v>
+        <v>0.96</v>
       </c>
       <c r="U31" t="n">
-        <v>4.428222816357451</v>
+        <v>4.400000000000003</v>
       </c>
       <c r="V31" t="n">
-        <v>1.553063829090086</v>
+        <v>1.611701492537312</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4726910960869046</v>
+        <v>0.4319999999999998</v>
       </c>
       <c r="X31" t="n">
-        <v>2.812359362697997</v>
+        <v>2.907999999999999</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.4159809363129514</v>
+        <v>0.4034825870646755</v>
       </c>
       <c r="Z31" t="n">
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.071777362657431</v>
+        <v>1.128000000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3089,58 +3089,58 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.497038805970149</v>
+        <v>0.560557213930348</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.008</v>
       </c>
       <c r="L32" t="n">
-        <v>1.38</v>
+        <v>1.468</v>
       </c>
       <c r="M32" t="n">
-        <v>3.130039307138536</v>
+        <v>3.094268656716403</v>
       </c>
       <c r="N32" t="n">
-        <v>1.29805977021289</v>
+        <v>1.208000000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>5.673998510639688</v>
+        <v>5.531999999999998</v>
       </c>
       <c r="P32" t="n">
-        <v>3.123338997075818</v>
+        <v>3.124258706467649</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.297887121212122</v>
+        <v>1.276</v>
       </c>
       <c r="R32" t="n">
-        <v>5.258012515508105</v>
+        <v>5.335999999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>2.583340949175013</v>
+        <v>2.576358208955212</v>
       </c>
       <c r="T32" t="n">
-        <v>0.9818250947111268</v>
+        <v>1.004</v>
       </c>
       <c r="U32" t="n">
-        <v>4.468108244412082</v>
+        <v>4.539999999999997</v>
       </c>
       <c r="V32" t="n">
-        <v>1.645606796890084</v>
+        <v>1.627820895522387</v>
       </c>
       <c r="W32" t="n">
-        <v>0.4866728437649288</v>
+        <v>0.408</v>
       </c>
       <c r="X32" t="n">
-        <v>3.037314744242685</v>
+        <v>3</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.4137991989426159</v>
+        <v>0.4140298507462681</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.033243598093428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -3163,67 +3163,67 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2480562741846309</v>
+        <v>0.2874427860696506</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7999999999999982</v>
+        <v>0.8559999999999998</v>
       </c>
       <c r="J33" t="n">
-        <v>2.305986069651728</v>
+        <v>2.289572139303468</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8552520146520144</v>
+        <v>0.8359999999999996</v>
       </c>
       <c r="L33" t="n">
-        <v>4.367955555555554</v>
+        <v>4.299999999999996</v>
       </c>
       <c r="M33" t="n">
-        <v>2.934214742329331</v>
+        <v>2.930507462686557</v>
       </c>
       <c r="N33" t="n">
-        <v>1.219896528634764</v>
+        <v>1.328</v>
       </c>
       <c r="O33" t="n">
-        <v>5.159572584278468</v>
+        <v>5.292000000000002</v>
       </c>
       <c r="P33" t="n">
-        <v>2.918972133919138</v>
+        <v>2.840298507462675</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.123991592394534</v>
+        <v>1.052</v>
       </c>
       <c r="R33" t="n">
-        <v>5.05043624120977</v>
+        <v>4.975999999999996</v>
       </c>
       <c r="S33" t="n">
-        <v>2.357415852306887</v>
+        <v>2.293253731343277</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9483243949201398</v>
+        <v>0.9480000000000001</v>
       </c>
       <c r="U33" t="n">
-        <v>4.288525252525254</v>
+        <v>4.091999999999997</v>
       </c>
       <c r="V33" t="n">
-        <v>1.475512972240584</v>
+        <v>1.466646766169154</v>
       </c>
       <c r="W33" t="n">
-        <v>0.4722803503814623</v>
+        <v>0.4039999999999999</v>
       </c>
       <c r="X33" t="n">
-        <v>2.848247969605938</v>
+        <v>2.799999999999999</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.3486724385765746</v>
+        <v>0.3387462686567155</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.036290882124183</v>
+        <v>1.116000000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3237,76 +3237,76 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2146949880228476</v>
+        <v>0.2087164179104466</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7413333333333321</v>
+        <v>0.7440000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8401260364842434</v>
+        <v>0.8208557213930335</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06490158730158728</v>
+        <v>0.06400000000000002</v>
       </c>
       <c r="I34" t="n">
-        <v>1.939600000000001</v>
+        <v>1.872</v>
       </c>
       <c r="J34" t="n">
-        <v>1.430553897180762</v>
+        <v>1.42620895522388</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3886666666666666</v>
+        <v>0.3919999999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>2.9408</v>
+        <v>2.964</v>
       </c>
       <c r="M34" t="n">
-        <v>1.725412935323381</v>
+        <v>1.730447761194029</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4459999999999997</v>
+        <v>0.4639999999999997</v>
       </c>
       <c r="O34" t="n">
         <v>3.555999999999997</v>
       </c>
       <c r="P34" t="n">
-        <v>1.804982255389718</v>
+        <v>1.775562189054726</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5378333333333337</v>
+        <v>0.4759999999999999</v>
       </c>
       <c r="R34" t="n">
-        <v>3.428955555555552</v>
+        <v>3.456000000000001</v>
       </c>
       <c r="S34" t="n">
-        <v>1.639334384244831</v>
+        <v>1.621870646766169</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4295827931898712</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="U34" t="n">
-        <v>3.220333333333333</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="V34" t="n">
-        <v>1.076349253731342</v>
+        <v>1.064358208955223</v>
       </c>
       <c r="W34" t="n">
-        <v>0.2852038221038218</v>
+        <v>0.212</v>
       </c>
       <c r="X34" t="n">
-        <v>2.233999999999997</v>
+        <v>2.212000000000002</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.3076455394982749</v>
+        <v>0.2965373134328345</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.866397256961468</v>
+        <v>0.8639999999999997</v>
       </c>
     </row>
     <row r="35">
@@ -3320,76 +3320,76 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.0007761194029850739</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0282905034288703</v>
+        <v>0.02610945273631827</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0001025641025641026</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2294579901579899</v>
+        <v>0.212</v>
       </c>
       <c r="J35" t="n">
-        <v>0.09643359537090868</v>
+        <v>0.09162189054726351</v>
       </c>
       <c r="K35" t="n">
-        <v>0.001333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.4390539682539682</v>
+        <v>0.4119999999999999</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1553865130861398</v>
+        <v>0.1555422885572137</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.5957647058823534</v>
+        <v>0.5960000000000005</v>
       </c>
       <c r="P35" t="n">
-        <v>0.2439865589634237</v>
+        <v>0.2433233830845766</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7986666666666647</v>
+        <v>0.7879999999999998</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2661878543788974</v>
+        <v>0.2657711442786058</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.8079999999999999</v>
+        <v>0.8159999999999998</v>
       </c>
       <c r="V35" t="n">
-        <v>0.2253469201610986</v>
+        <v>0.220298507462686</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.7078620490620489</v>
+        <v>0.7640000000000002</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.06834096975440258</v>
+        <v>0.06652736318407951</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.3998104691007907</v>
+        <v>0.3999999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04297384506041209</v>
+        <v>0.05076616915422869</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>0.2199999999999999</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.485592039800994</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.403999999999999</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.116039800995025</v>
+      </c>
+      <c r="Q36" t="n">
         <v>0.2079999999999999</v>
       </c>
-      <c r="M36" t="n">
-        <v>0.4894527363184065</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.01411111111111111</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.092348258706467</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.1919999999999997</v>
-      </c>
       <c r="R36" t="n">
-        <v>2.397333333333332</v>
+        <v>2.428000000000002</v>
       </c>
       <c r="S36" t="n">
-        <v>1.385731343283582</v>
+        <v>1.379920398009949</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2636712643678161</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="U36" t="n">
-        <v>2.891219047619046</v>
+        <v>2.824</v>
       </c>
       <c r="V36" t="n">
-        <v>1.123734991708125</v>
+        <v>1.119920398009948</v>
       </c>
       <c r="W36" t="n">
-        <v>0.2521819278182718</v>
+        <v>0.3360000000000001</v>
       </c>
       <c r="X36" t="n">
-        <v>2.278545238095236</v>
+        <v>2.376000000000002</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.3362399115533431</v>
+        <v>0.3475820895522376</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.9033194232195624</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="37">
@@ -3486,52 +3486,52 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01528763368315664</v>
+        <v>0.006368159203980086</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1406984126984124</v>
+        <v>0.1440000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02498558119602891</v>
+        <v>0.01916417910447758</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2009333333333329</v>
+        <v>0.196</v>
       </c>
       <c r="J37" t="n">
-        <v>0.04394066464215708</v>
+        <v>0.04407960199004967</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.2118666666666666</v>
+        <v>0.2319999999999998</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06840586318048997</v>
+        <v>0.06473631840796018</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.3524185643813552</v>
+        <v>0.3639999999999999</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0830556596526745</v>
+        <v>0.08302487562189043</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.3999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1011724343649716</v>
+        <v>0.1031243781094525</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3540,22 +3540,22 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="V37" t="n">
-        <v>0.08063255901091713</v>
+        <v>0.07956218905472631</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.3986833333333326</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.01884405845443808</v>
+        <v>0.01974129353233819</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.1999639639639635</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38">
@@ -3569,76 +3569,76 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2656708836768538</v>
+        <v>0.2703283582089552</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7893333333333314</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="G38" t="n">
-        <v>2.258424543946921</v>
+        <v>2.227980099502479</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8670996632996624</v>
+        <v>0.8119999999999997</v>
       </c>
       <c r="I38" t="n">
-        <v>4.125088888888889</v>
+        <v>4.092</v>
       </c>
       <c r="J38" t="n">
-        <v>3.032438595456497</v>
+        <v>3.042029850746262</v>
       </c>
       <c r="K38" t="n">
-        <v>1.244704337655808</v>
+        <v>1.212000000000001</v>
       </c>
       <c r="L38" t="n">
-        <v>5.120619713619714</v>
+        <v>5.183999999999997</v>
       </c>
       <c r="M38" t="n">
-        <v>2.901394758574426</v>
+        <v>2.905691542288545</v>
       </c>
       <c r="N38" t="n">
-        <v>1.189353466903467</v>
+        <v>1.212000000000001</v>
       </c>
       <c r="O38" t="n">
-        <v>4.840078480343186</v>
+        <v>4.723999999999997</v>
       </c>
       <c r="P38" t="n">
-        <v>2.42735909629342</v>
+        <v>2.408238805970139</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.9269227269911577</v>
+        <v>0.8559999999999997</v>
       </c>
       <c r="R38" t="n">
-        <v>4.290608827666619</v>
+        <v>4.267999999999998</v>
       </c>
       <c r="S38" t="n">
-        <v>1.994753307140617</v>
+        <v>1.947343283582085</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6848083558856007</v>
+        <v>0.6120000000000005</v>
       </c>
       <c r="U38" t="n">
-        <v>3.61247142857143</v>
+        <v>3.468000000000001</v>
       </c>
       <c r="V38" t="n">
-        <v>1.2133280023183</v>
+        <v>1.188915422885571</v>
       </c>
       <c r="W38" t="n">
-        <v>0.2904222768260814</v>
+        <v>0.2239999999999999</v>
       </c>
       <c r="X38" t="n">
-        <v>2.41627624884461</v>
+        <v>2.288000000000001</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.303065849996695</v>
+        <v>0.3024875621890535</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.924983329626855</v>
+        <v>0.8439999999999996</v>
       </c>
     </row>
     <row r="39">
@@ -3652,22 +3652,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06536603348742648</v>
+        <v>0.06678606965174126</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3754444444444439</v>
+        <v>0.38</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2613582089552235</v>
+        <v>0.2725771144278602</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0006666666666666668</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7466031746031733</v>
+        <v>0.78</v>
       </c>
       <c r="J39" t="n">
         <v>0.5228855721393026</v>
@@ -3676,52 +3676,52 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1.200666666666667</v>
+        <v>1.224000000000001</v>
       </c>
       <c r="M39" t="n">
-        <v>0.725422885572138</v>
+        <v>0.732955223880596</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1.669999999999999</v>
+        <v>1.663999999999999</v>
       </c>
       <c r="P39" t="n">
-        <v>0.8290655058043095</v>
+        <v>0.821950248756217</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.006000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.977333333333333</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
-        <v>0.8301550580431173</v>
+        <v>0.8512636815920394</v>
       </c>
       <c r="T39" t="n">
-        <v>0.01153726273726274</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.907999999999999</v>
+        <v>1.883999999999999</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6410348258706452</v>
+        <v>0.6469850746268641</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1.571999999999999</v>
+        <v>1.599999999999999</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1756112583197162</v>
+        <v>0.1787064676616913</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.6007508417508409</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="40">
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0003582089552238804</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3753,58 +3753,58 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01456070060625809</v>
+        <v>0.01858706467661688</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1962925451559934</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>0.03162384321062399</v>
+        <v>0.03321393034825856</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.2005637350463493</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="P40" t="n">
-        <v>0.05229182714173928</v>
+        <v>0.04965174129353227</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.3906666666666658</v>
+        <v>0.392</v>
       </c>
       <c r="S40" t="n">
-        <v>0.07186485951859076</v>
+        <v>0.07397014925373122</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.398</v>
+        <v>0.396</v>
       </c>
       <c r="V40" t="n">
-        <v>0.06199664708360924</v>
+        <v>0.06409950248756209</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.3600138444888441</v>
+        <v>0.392</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.01997236343526991</v>
+        <v>0.01800995024875618</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.1996391776391772</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.001611940298507456</v>
+        <v>0.001751243781094524</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3845,49 +3845,49 @@
         <v>0.012</v>
       </c>
       <c r="M41" t="n">
-        <v>0.2348606965174123</v>
+        <v>0.2283582089552232</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0.792</v>
+        <v>0.78</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8771044776119392</v>
+        <v>0.8613333333333323</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.1739999999999997</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="R41" t="n">
-        <v>2.053333333333333</v>
+        <v>2.052</v>
       </c>
       <c r="S41" t="n">
-        <v>1.248228855721393</v>
+        <v>1.244636815920398</v>
       </c>
       <c r="T41" t="n">
-        <v>0.2933333333333334</v>
+        <v>0.2519999999999999</v>
       </c>
       <c r="U41" t="n">
-        <v>2.595999999999998</v>
+        <v>2.567999999999999</v>
       </c>
       <c r="V41" t="n">
-        <v>1.09151326699834</v>
+        <v>1.075004975124376</v>
       </c>
       <c r="W41" t="n">
-        <v>0.2410630438131985</v>
+        <v>0.276</v>
       </c>
       <c r="X41" t="n">
-        <v>2.316480341880342</v>
+        <v>2.320000000000002</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.3295389718076278</v>
+        <v>0.3223482587064667</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.9510646952691844</v>
+        <v>0.8879999999999996</v>
       </c>
     </row>
     <row r="42">
@@ -3910,67 +3910,67 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6407571270630972</v>
+        <v>0.6164378109452726</v>
       </c>
       <c r="H42" t="n">
-        <v>0.004168498168498169</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.581392063492061</v>
+        <v>1.54</v>
       </c>
       <c r="J42" t="n">
-        <v>1.923041601516225</v>
+        <v>1.929791044776116</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5986456654456658</v>
+        <v>0.5880000000000004</v>
       </c>
       <c r="L42" t="n">
-        <v>3.589523809523806</v>
+        <v>3.591999999999997</v>
       </c>
       <c r="M42" t="n">
-        <v>2.435488021431292</v>
+        <v>2.450268656716404</v>
       </c>
       <c r="N42" t="n">
-        <v>0.994484992784993</v>
+        <v>0.9159999999999997</v>
       </c>
       <c r="O42" t="n">
-        <v>4.477371639471638</v>
+        <v>4.547999999999998</v>
       </c>
       <c r="P42" t="n">
-        <v>2.386394549288595</v>
+        <v>2.394527363184065</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.9590091575091572</v>
+        <v>0.8399999999999997</v>
       </c>
       <c r="R42" t="n">
-        <v>4.454483106327223</v>
+        <v>4.604000000000001</v>
       </c>
       <c r="S42" t="n">
-        <v>2.121652145548728</v>
+        <v>2.126447761194016</v>
       </c>
       <c r="T42" t="n">
-        <v>0.7284081073610486</v>
+        <v>0.76</v>
       </c>
       <c r="U42" t="n">
-        <v>3.775701098901099</v>
+        <v>3.812</v>
       </c>
       <c r="V42" t="n">
-        <v>1.347366059617551</v>
+        <v>1.356716417910447</v>
       </c>
       <c r="W42" t="n">
-        <v>0.3448570225692132</v>
+        <v>0.3879999999999999</v>
       </c>
       <c r="X42" t="n">
-        <v>2.552775616018616</v>
+        <v>2.536</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.3506444017678443</v>
+        <v>0.3515422885572134</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.9405468342751959</v>
+        <v>0.9039999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3984,76 +3984,76 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.0003383084577114428</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07483395719813615</v>
+        <v>0.05994029850746254</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0001025641025641026</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4038571428571421</v>
+        <v>0.3719999999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2682336650082905</v>
+        <v>0.2781691542288544</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.6662603174603176</v>
+        <v>0.7639999999999999</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5286287846481873</v>
+        <v>0.5072437810945263</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.045333333333333</v>
+        <v>1.232</v>
       </c>
       <c r="P43" t="n">
-        <v>0.7223316749585402</v>
+        <v>0.7117213930348255</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="R43" t="n">
-        <v>1.747638095238098</v>
+        <v>1.763999999999998</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7888877280265334</v>
+        <v>0.7904079601990037</v>
       </c>
       <c r="T43" t="n">
-        <v>0.08964473304473307</v>
+        <v>0.1240000000000001</v>
       </c>
       <c r="U43" t="n">
-        <v>1.701999999999999</v>
+        <v>1.839999999999999</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5893451314854289</v>
+        <v>0.5893333333333319</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.423932539682541</v>
+        <v>1.452</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1599171918186843</v>
+        <v>0.1689751243781095</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.6929063973063964</v>
+        <v>0.7000000000000004</v>
       </c>
     </row>
     <row r="44">
@@ -4085,58 +4085,58 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.002547263681592036</v>
+        <v>0.005094527363184073</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
       <c r="M44" t="n">
-        <v>0.6376245439469307</v>
+        <v>0.6386666666666663</v>
       </c>
       <c r="N44" t="n">
-        <v>0.012</v>
+        <v>0.008000000000000002</v>
       </c>
       <c r="O44" t="n">
         <v>1.508</v>
       </c>
       <c r="P44" t="n">
-        <v>1.826288557213928</v>
+        <v>1.829751243781093</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6440000000000005</v>
+        <v>0.6080000000000005</v>
       </c>
       <c r="R44" t="n">
-        <v>3.593888888888894</v>
+        <v>3.571999999999999</v>
       </c>
       <c r="S44" t="n">
-        <v>2.304988209329284</v>
+        <v>2.307124378109442</v>
       </c>
       <c r="T44" t="n">
-        <v>0.781059559154296</v>
+        <v>0.7919999999999999</v>
       </c>
       <c r="U44" t="n">
-        <v>4.319112698412699</v>
+        <v>4.320000000000001</v>
       </c>
       <c r="V44" t="n">
-        <v>1.632002084814024</v>
+        <v>1.631024875621889</v>
       </c>
       <c r="W44" t="n">
-        <v>0.5062977908713104</v>
+        <v>0.5760000000000004</v>
       </c>
       <c r="X44" t="n">
-        <v>2.98511111111111</v>
+        <v>2.988</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4269412597197589</v>
+        <v>0.4375920398009943</v>
       </c>
       <c r="Z44" t="n">
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.20166426525954</v>
+        <v>1.196000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -4150,76 +4150,76 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6022244333886111</v>
+        <v>0.5680995024875621</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.501333333333332</v>
+        <v>1.480000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>1.875646213377546</v>
+        <v>1.936437810945261</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6194846560846556</v>
+        <v>0.6200000000000006</v>
       </c>
       <c r="I45" t="n">
-        <v>3.641222222222225</v>
+        <v>3.684000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>2.443176451077938</v>
+        <v>2.565990049751239</v>
       </c>
       <c r="K45" t="n">
-        <v>1.048800000000001</v>
+        <v>1.124000000000001</v>
       </c>
       <c r="L45" t="n">
-        <v>4.4176</v>
+        <v>4.523999999999998</v>
       </c>
       <c r="M45" t="n">
-        <v>2.527182805447723</v>
+        <v>2.541373134328354</v>
       </c>
       <c r="N45" t="n">
-        <v>0.8568913419913408</v>
+        <v>0.9839999999999999</v>
       </c>
       <c r="O45" t="n">
-        <v>4.488931956931958</v>
+        <v>4.535999999999998</v>
       </c>
       <c r="P45" t="n">
-        <v>2.319195992343745</v>
+        <v>2.317432835820888</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.8041928571428563</v>
+        <v>0.8960000000000001</v>
       </c>
       <c r="R45" t="n">
-        <v>4.041226832426831</v>
+        <v>4.008</v>
       </c>
       <c r="S45" t="n">
-        <v>1.902236119546566</v>
+        <v>1.97140298507462</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6499453028453032</v>
+        <v>0.6160000000000005</v>
       </c>
       <c r="U45" t="n">
-        <v>3.536000000000002</v>
+        <v>3.728000000000001</v>
       </c>
       <c r="V45" t="n">
-        <v>1.239551705039017</v>
+        <v>1.283482587064675</v>
       </c>
       <c r="W45" t="n">
-        <v>0.3130485010232933</v>
+        <v>0.3839999999999999</v>
       </c>
       <c r="X45" t="n">
-        <v>2.393971246589667</v>
+        <v>2.495999999999999</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.300093273650984</v>
+        <v>0.3060298507462673</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.8988112182077023</v>
+        <v>0.9839999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -4251,58 +4251,58 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.267860696517412</v>
+        <v>0.2555422885572131</v>
       </c>
       <c r="K46" t="n">
-        <v>0.006000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0.7999999999999997</v>
       </c>
       <c r="M46" t="n">
-        <v>2.321820895522381</v>
+        <v>2.331263681592036</v>
       </c>
       <c r="N46" t="n">
-        <v>0.8052962962962944</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="O46" t="n">
-        <v>4.519333333333333</v>
+        <v>4.548</v>
       </c>
       <c r="P46" t="n">
-        <v>2.896494717277478</v>
+        <v>2.864796019900488</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.269132733932735</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="R46" t="n">
-        <v>5.030921642742076</v>
+        <v>4.867999999999999</v>
       </c>
       <c r="S46" t="n">
-        <v>2.576654593876652</v>
+        <v>2.56792039800994</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9673521459675662</v>
+        <v>0.9879999999999999</v>
       </c>
       <c r="U46" t="n">
-        <v>4.588647487033091</v>
+        <v>4.432000000000003</v>
       </c>
       <c r="V46" t="n">
-        <v>1.64267226203868</v>
+        <v>1.675781094527362</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4968878244420664</v>
+        <v>0.5880000000000004</v>
       </c>
       <c r="X46" t="n">
-        <v>3.137900421800421</v>
+        <v>3.232000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4182934787274522</v>
+        <v>0.4330149253731331</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.070405342126707</v>
+        <v>1.124000000000001</v>
       </c>
     </row>
     <row r="47">
@@ -4325,67 +4325,67 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7430856826976218</v>
+        <v>0.7344676616915408</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.82666666666667</v>
+        <v>1.815999999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>3.300903489269152</v>
+        <v>3.321810945273624</v>
       </c>
       <c r="K47" t="n">
-        <v>1.358829762067997</v>
+        <v>1.292000000000001</v>
       </c>
       <c r="L47" t="n">
-        <v>5.773264131680726</v>
+        <v>5.828000000000004</v>
       </c>
       <c r="M47" t="n">
-        <v>3.29039334472863</v>
+        <v>3.196696517412929</v>
       </c>
       <c r="N47" t="n">
-        <v>1.397413454907614</v>
+        <v>1.260000000000001</v>
       </c>
       <c r="O47" t="n">
-        <v>5.608187955764042</v>
+        <v>5.456000000000001</v>
       </c>
       <c r="P47" t="n">
-        <v>2.805268809879992</v>
+        <v>2.791741293532326</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.9989168527976712</v>
+        <v>1.112000000000001</v>
       </c>
       <c r="R47" t="n">
-        <v>4.732051458943342</v>
+        <v>4.772000000000002</v>
       </c>
       <c r="S47" t="n">
-        <v>2.246111887739115</v>
+        <v>2.245074626865664</v>
       </c>
       <c r="T47" t="n">
-        <v>0.9330943343675925</v>
+        <v>0.8799999999999996</v>
       </c>
       <c r="U47" t="n">
-        <v>3.988262626262626</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
-        <v>1.398057845222769</v>
+        <v>1.397711442786068</v>
       </c>
       <c r="W47" t="n">
-        <v>0.4526190534056201</v>
+        <v>0.4479999999999999</v>
       </c>
       <c r="X47" t="n">
-        <v>2.761690178330592</v>
+        <v>2.655999999999998</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.3310160821918998</v>
+        <v>0.3450746268656711</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>1.010258683634891</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="48">
@@ -4399,76 +4399,76 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.020066375087306</v>
+        <v>0.02732338308457709</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2143333333333328</v>
+        <v>0.244</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1917639579878384</v>
+        <v>0.2053134328358207</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.6127819624819617</v>
+        <v>0.6440000000000005</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4168995024875609</v>
+        <v>0.4383681592039788</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1.080895238095238</v>
+        <v>1.1</v>
       </c>
       <c r="M48" t="n">
-        <v>0.6601203980099503</v>
+        <v>0.6825074626865673</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1.767999999999998</v>
+        <v>1.771999999999998</v>
       </c>
       <c r="P48" t="n">
-        <v>0.837925373134327</v>
+        <v>0.8603781094527343</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="R48" t="n">
-        <v>1.863666666666667</v>
+        <v>1.96</v>
       </c>
       <c r="S48" t="n">
-        <v>0.8645121061359852</v>
+        <v>0.8734925373134313</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01913726273726274</v>
+        <v>0.02</v>
       </c>
       <c r="U48" t="n">
-        <v>2.069133333333334</v>
+        <v>2.108000000000001</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6761721393034812</v>
+        <v>0.6778706467661678</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>1.544379220779219</v>
+        <v>1.58</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.1738281076947743</v>
+        <v>0.1655124378109452</v>
       </c>
       <c r="Z48" t="n">
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.6020841750841742</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="49">
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>9.950248756218879e-05</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4500,58 +4500,58 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.004426772029394052</v>
+        <v>0.004019900497512435</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0285</v>
+        <v>0.004</v>
       </c>
       <c r="M49" t="n">
-        <v>0.02259901565061211</v>
+        <v>0.01896517412935324</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0.2005637350463493</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="P49" t="n">
-        <v>0.04372739911537095</v>
+        <v>0.04294527363184072</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2053333333333328</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0613181663830917</v>
+        <v>0.06310447761194019</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.3268000000000001</v>
+        <v>0.364</v>
       </c>
       <c r="V49" t="n">
-        <v>0.05720883807117343</v>
+        <v>0.05178109452736318</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0.2584512182262179</v>
+        <v>0.2239999999999999</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.0218941536357695</v>
+        <v>0.02202985074626858</v>
       </c>
       <c r="Z49" t="n">
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.1899346683964724</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -4565,52 +4565,52 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01528810750452598</v>
+        <v>0.006228855721393023</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.145733333333333</v>
+        <v>0.1480000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02432457932706686</v>
+        <v>0.02069651741293529</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.2009333333333329</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>0.04770042643923231</v>
+        <v>0.04461691542288553</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2279999999999999</v>
+        <v>0.2359999999999998</v>
       </c>
       <c r="M50" t="n">
-        <v>0.07058814620978793</v>
+        <v>0.06780099502487558</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0.3931999999999999</v>
+        <v>0.3959999999999999</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0871898340189384</v>
+        <v>0.08485572139303468</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0.3986666666666657</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S50" t="n">
-        <v>0.09679008421097962</v>
+        <v>0.1037611940298506</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4619,22 +4619,22 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="V50" t="n">
-        <v>0.0762696395368035</v>
+        <v>0.07745273631840786</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0.3986833333333326</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.02073355411902886</v>
+        <v>0.02105472636815909</v>
       </c>
       <c r="Z50" t="n">
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.1982623857623853</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="51">
@@ -4666,58 +4666,58 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>5.140961857379761e-05</v>
+        <v>0.001671641791044774</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.004</v>
+        <v>0.048</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01070267464489773</v>
+        <v>0.007641791044776108</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0.168544141766093</v>
+        <v>0.09600000000000003</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01879810973990074</v>
+        <v>0.01864676616915417</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="S51" t="n">
-        <v>0.02937571637870139</v>
+        <v>0.02997014925373123</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0.2</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="V51" t="n">
-        <v>0.02162099704261796</v>
+        <v>0.02216915422885566</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.007701944310768607</v>
+        <v>0.007860696517412925</v>
       </c>
       <c r="Z51" t="n">
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.1774080159542224</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="52">
@@ -4758,49 +4758,49 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1.265274626865672</v>
+        <v>1.247641791044774</v>
       </c>
       <c r="N52" t="n">
-        <v>0.2079999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="O52" t="n">
-        <v>2.631999999999997</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="P52" t="n">
-        <v>2.840655762024032</v>
+        <v>2.814069651741278</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.104103412523149</v>
+        <v>1.052</v>
       </c>
       <c r="R52" t="n">
-        <v>5.063603645259685</v>
+        <v>5.063999999999998</v>
       </c>
       <c r="S52" t="n">
-        <v>2.755032168881412</v>
+        <v>2.752338308457699</v>
       </c>
       <c r="T52" t="n">
-        <v>1.02972973231244</v>
+        <v>1.052</v>
       </c>
       <c r="U52" t="n">
-        <v>4.734167918682624</v>
+        <v>4.516000000000003</v>
       </c>
       <c r="V52" t="n">
-        <v>1.765764987638121</v>
+        <v>1.769452736318408</v>
       </c>
       <c r="W52" t="n">
-        <v>0.564402681050522</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="X52" t="n">
-        <v>3.258458388816205</v>
+        <v>3.211999999999999</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.4244010763173861</v>
+        <v>0.4125373134328342</v>
       </c>
       <c r="Z52" t="n">
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.191337690257888</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -4814,76 +4814,76 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.063457428364891</v>
+        <v>0.04732338308457706</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3698888888888885</v>
+        <v>0.3160000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2695218352681033</v>
+        <v>0.2410945273631836</v>
       </c>
       <c r="H53" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.731603174603173</v>
+        <v>0.7160000000000002</v>
       </c>
       <c r="J53" t="n">
-        <v>0.4819061359867314</v>
+        <v>0.4896915422885557</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1.241333333333334</v>
+        <v>1.264</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7166288557213921</v>
+        <v>0.6928358208955215</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>1.639999999999999</v>
+        <v>1.671999999999999</v>
       </c>
       <c r="P53" t="n">
-        <v>0.8044776119402972</v>
+        <v>0.8174925373134311</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.104</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="R53" t="n">
-        <v>1.833333333333333</v>
+        <v>1.84</v>
       </c>
       <c r="S53" t="n">
-        <v>0.8301691542288546</v>
+        <v>0.8353830845771131</v>
       </c>
       <c r="T53" t="n">
-        <v>0.1042981684981685</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="U53" t="n">
-        <v>1.835999999999999</v>
+        <v>1.875999999999999</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6521343283582068</v>
+        <v>0.6565771144278592</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>1.550333333333332</v>
+        <v>1.519999999999999</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1744384054125346</v>
+        <v>0.1756815920398009</v>
       </c>
       <c r="Z53" t="n">
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.6652397306397297</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="54">
@@ -4897,76 +4897,76 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.001452736318407955</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G54" t="n">
-        <v>0.011093203157631</v>
+        <v>0.01156218905472636</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0001025641025641026</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>0.02195509387857933</v>
+        <v>0.0204378109452736</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.1997287356321839</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="M54" t="n">
-        <v>0.0286219796995568</v>
+        <v>0.02973134328358199</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.205377587860202</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="P54" t="n">
-        <v>0.03525589588177951</v>
+        <v>0.03645771144278592</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.2035767195767191</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="S54" t="n">
-        <v>0.03832977605153558</v>
+        <v>0.03880597014925363</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0.2312599733599733</v>
+        <v>0.2559999999999999</v>
       </c>
       <c r="V54" t="n">
-        <v>0.0318105946340157</v>
+        <v>0.02662686567164173</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0.2819999999999995</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.0124098819653284</v>
+        <v>0.01090547263681591</v>
       </c>
       <c r="Z54" t="n">
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.1963737886259219</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="55">
@@ -4980,52 +4980,52 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.0004179104477611932</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G55" t="n">
-        <v>0.012163278705816</v>
+        <v>0.009552238805970148</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0001025641025641026</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1999999999999995</v>
+        <v>0.188</v>
       </c>
       <c r="J55" t="n">
-        <v>0.03684914650919912</v>
+        <v>0.03605970149253718</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.2037287356321839</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="M55" t="n">
-        <v>0.05156960776436183</v>
+        <v>0.05229850746268647</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.2789680640506783</v>
+        <v>0.2639999999999998</v>
       </c>
       <c r="P55" t="n">
-        <v>0.08276686552805947</v>
+        <v>0.08497512437810938</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.3999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S55" t="n">
-        <v>0.09223923133251484</v>
+        <v>0.08999004975124369</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
@@ -5034,22 +5034,22 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="V55" t="n">
-        <v>0.07780419229747579</v>
+        <v>0.07492537313432833</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0.3964525641025635</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.01837250746074779</v>
+        <v>0.01741293532338303</v>
       </c>
       <c r="Z55" t="n">
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.1999639639639635</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -5084,55 +5084,55 @@
         <v>1.243701492537312</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1983333333333333</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="L56" t="n">
         <v>2.747999999999998</v>
       </c>
       <c r="M56" t="n">
-        <v>2.919856651304824</v>
+        <v>2.949233830845765</v>
       </c>
       <c r="N56" t="n">
-        <v>1.072190051778287</v>
+        <v>1.012</v>
       </c>
       <c r="O56" t="n">
-        <v>5.096053902959786</v>
+        <v>5.015999999999998</v>
       </c>
       <c r="P56" t="n">
-        <v>2.982546319227211</v>
+        <v>2.990567164179093</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.343923701298703</v>
+        <v>1.388</v>
       </c>
       <c r="R56" t="n">
-        <v>5.04687199434004</v>
+        <v>5.039999999999999</v>
       </c>
       <c r="S56" t="n">
-        <v>2.492227029287317</v>
+        <v>2.514865671641786</v>
       </c>
       <c r="T56" t="n">
-        <v>0.957147541218286</v>
+        <v>0.988</v>
       </c>
       <c r="U56" t="n">
-        <v>4.408966045967252</v>
+        <v>4.400000000000003</v>
       </c>
       <c r="V56" t="n">
-        <v>1.600786531613628</v>
+        <v>1.625930348258706</v>
       </c>
       <c r="W56" t="n">
-        <v>0.4790350968688175</v>
+        <v>0.5880000000000004</v>
       </c>
       <c r="X56" t="n">
-        <v>2.911059430386298</v>
+        <v>2.864</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.3952503237903867</v>
+        <v>0.4034825870646751</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.041036152549675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -5164,58 +5164,58 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4975562189054723</v>
+        <v>0.5430248756218902</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0006666666666666666</v>
+        <v>0.024</v>
       </c>
       <c r="L57" t="n">
-        <v>1.38</v>
+        <v>1.416</v>
       </c>
       <c r="M57" t="n">
-        <v>3.113201017959791</v>
+        <v>3.059621890547249</v>
       </c>
       <c r="N57" t="n">
-        <v>1.286692882913394</v>
+        <v>1.240000000000001</v>
       </c>
       <c r="O57" t="n">
-        <v>5.576711896529162</v>
+        <v>5.363999999999996</v>
       </c>
       <c r="P57" t="n">
-        <v>3.111998892045415</v>
+        <v>3.113990049751231</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.298773701298702</v>
+        <v>1.264</v>
       </c>
       <c r="R57" t="n">
-        <v>5.276266774756481</v>
+        <v>5.384000000000001</v>
       </c>
       <c r="S57" t="n">
-        <v>2.587633772174859</v>
+        <v>2.583502487562177</v>
       </c>
       <c r="T57" t="n">
-        <v>0.9722954366522601</v>
+        <v>1.02</v>
       </c>
       <c r="U57" t="n">
-        <v>4.451801318005155</v>
+        <v>4.523999999999997</v>
       </c>
       <c r="V57" t="n">
-        <v>1.64283410838456</v>
+        <v>1.622129353233829</v>
       </c>
       <c r="W57" t="n">
-        <v>0.4813262592986442</v>
+        <v>0.4119999999999999</v>
       </c>
       <c r="X57" t="n">
-        <v>3.015557845585787</v>
+        <v>2.963999999999999</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.4079835264089668</v>
+        <v>0.4130348258706464</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.03058630909087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -5229,52 +5229,52 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01528763368315664</v>
+        <v>0.005432835820895511</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1340317460317458</v>
+        <v>0.08800000000000002</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02542383963926248</v>
+        <v>0.02193034825870644</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2002666666666662</v>
+        <v>0.196</v>
       </c>
       <c r="J58" t="n">
-        <v>0.04119115816385341</v>
+        <v>0.04437810945273617</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.2117066666666666</v>
+        <v>0.2319999999999998</v>
       </c>
       <c r="M58" t="n">
-        <v>0.06622918703739593</v>
+        <v>0.06336318407960197</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0.3404852310480218</v>
+        <v>0.352</v>
       </c>
       <c r="P58" t="n">
-        <v>0.08316345401420019</v>
+        <v>0.0815721393034825</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3999999999999991</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S58" t="n">
-        <v>0.09661103357670513</v>
+        <v>0.09639800995024864</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
@@ -5283,22 +5283,22 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="V58" t="n">
-        <v>0.07806107121181738</v>
+        <v>0.07872636815920395</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>0.3852666666666661</v>
+        <v>0.396</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.01952883306661515</v>
+        <v>0.01759203980099495</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.1999639639639635</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="59">
@@ -5330,58 +5330,58 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.5951129353233824</v>
+        <v>0.5956616915422881</v>
       </c>
       <c r="K59" t="n">
-        <v>0.002333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>1.4</v>
       </c>
       <c r="M59" t="n">
-        <v>1.862538805970146</v>
+        <v>1.850507462686566</v>
       </c>
       <c r="N59" t="n">
-        <v>0.5300232804232803</v>
+        <v>0.5280000000000001</v>
       </c>
       <c r="O59" t="n">
-        <v>3.657333333333331</v>
+        <v>3.659999999999998</v>
       </c>
       <c r="P59" t="n">
-        <v>2.362189449039067</v>
+        <v>2.28282587064676</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.8311895382395373</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="R59" t="n">
-        <v>4.186943412143413</v>
+        <v>4.119999999999999</v>
       </c>
       <c r="S59" t="n">
-        <v>2.222495249166172</v>
+        <v>2.206706467661678</v>
       </c>
       <c r="T59" t="n">
-        <v>0.8008962197159564</v>
+        <v>0.7999999999999997</v>
       </c>
       <c r="U59" t="n">
-        <v>4.169114285714286</v>
+        <v>4.256000000000002</v>
       </c>
       <c r="V59" t="n">
-        <v>1.535535441051485</v>
+        <v>1.492696517412935</v>
       </c>
       <c r="W59" t="n">
-        <v>0.4772250999827347</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X59" t="n">
-        <v>2.825411919561922</v>
+        <v>2.927999999999999</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.4062937778844998</v>
+        <v>0.3881393034825857</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.043517958033183</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="60">
@@ -5395,76 +5395,76 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01522840601198867</v>
+        <v>0.002547263681592036</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.03844444444444447</v>
+        <v>0.016</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01816228318392496</v>
+        <v>0.01402985074626865</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2009333333333329</v>
+        <v>0.2</v>
       </c>
       <c r="J60" t="n">
-        <v>0.02886527284213846</v>
+        <v>0.02256716417910444</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.204</v>
+        <v>0.2</v>
       </c>
       <c r="M60" t="n">
-        <v>0.03252191882191875</v>
+        <v>0.02965174129353224</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.2806666666666667</v>
+        <v>0.2159999999999999</v>
       </c>
       <c r="P60" t="n">
-        <v>0.03981099256421314</v>
+        <v>0.03940298507462669</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0.2001481481481477</v>
+        <v>0.2</v>
       </c>
       <c r="S60" t="n">
-        <v>0.04064960091986791</v>
+        <v>0.04254726368159197</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0.2274826839826839</v>
+        <v>0.2839999999999999</v>
       </c>
       <c r="V60" t="n">
-        <v>0.03161464897733548</v>
+        <v>0.03341293532338301</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.008866407224616174</v>
+        <v>0.01265671641791043</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.1920312272610618</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="61">
@@ -5487,67 +5487,67 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1.272178441127695</v>
+        <v>1.273611940298506</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2170428127428124</v>
+        <v>0.204</v>
       </c>
       <c r="I61" t="n">
-        <v>2.614666666666671</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="J61" t="n">
-        <v>2.973897325062984</v>
+        <v>2.976656716417894</v>
       </c>
       <c r="K61" t="n">
-        <v>1.185043365294836</v>
+        <v>1.076</v>
       </c>
       <c r="L61" t="n">
-        <v>5.147126551226552</v>
+        <v>5.075999999999999</v>
       </c>
       <c r="M61" t="n">
-        <v>2.936343285350059</v>
+        <v>2.948298507462681</v>
       </c>
       <c r="N61" t="n">
-        <v>1.166807303045538</v>
+        <v>1.188000000000001</v>
       </c>
       <c r="O61" t="n">
-        <v>5.038478336043043</v>
+        <v>4.972</v>
       </c>
       <c r="P61" t="n">
-        <v>2.72358105073477</v>
+        <v>2.687223880597001</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.080065682315847</v>
+        <v>1.124000000000001</v>
       </c>
       <c r="R61" t="n">
-        <v>4.59013043549731</v>
+        <v>4.663999999999999</v>
       </c>
       <c r="S61" t="n">
-        <v>2.136647098232859</v>
+        <v>2.155223880597003</v>
       </c>
       <c r="T61" t="n">
-        <v>0.7308679527787887</v>
+        <v>0.7959999999999998</v>
       </c>
       <c r="U61" t="n">
-        <v>3.729075335775335</v>
+        <v>3.607999999999997</v>
       </c>
       <c r="V61" t="n">
-        <v>1.343606890097187</v>
+        <v>1.347223880597014</v>
       </c>
       <c r="W61" t="n">
-        <v>0.3421142545486824</v>
+        <v>0.396</v>
       </c>
       <c r="X61" t="n">
-        <v>2.570327780185719</v>
+        <v>2.711999999999999</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.3490137539916682</v>
+        <v>0.3563383084577109</v>
       </c>
       <c r="Z61" t="n">
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.9351125199732718</v>
+        <v>0.9439999999999997</v>
       </c>
     </row>
     <row r="62">
@@ -5570,67 +5570,67 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1082134144094344</v>
+        <v>0.1455323383084576</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.5604444444444437</v>
+        <v>0.6200000000000003</v>
       </c>
       <c r="J62" t="n">
-        <v>1.307960199004974</v>
+        <v>1.354805970149252</v>
       </c>
       <c r="K62" t="n">
-        <v>0.35759010989011</v>
+        <v>0.3679999999999999</v>
       </c>
       <c r="L62" t="n">
-        <v>2.770266666666666</v>
+        <v>2.836</v>
       </c>
       <c r="M62" t="n">
-        <v>2.293811513859268</v>
+        <v>2.276159203980091</v>
       </c>
       <c r="N62" t="n">
-        <v>0.7880714285714273</v>
+        <v>0.7639999999999999</v>
       </c>
       <c r="O62" t="n">
-        <v>4.475704972804973</v>
+        <v>4.348000000000002</v>
       </c>
       <c r="P62" t="n">
-        <v>2.412222102001219</v>
+        <v>2.41914427860695</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.9717710622710622</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="R62" t="n">
-        <v>4.428510090454205</v>
+        <v>4.328000000000002</v>
       </c>
       <c r="S62" t="n">
-        <v>2.278570552001886</v>
+        <v>2.194746268656709</v>
       </c>
       <c r="T62" t="n">
-        <v>0.7290000000000003</v>
+        <v>0.9039999999999998</v>
       </c>
       <c r="U62" t="n">
-        <v>4.168107936507938</v>
+        <v>3.932000000000001</v>
       </c>
       <c r="V62" t="n">
-        <v>1.474524028072535</v>
+        <v>1.463641791044776</v>
       </c>
       <c r="W62" t="n">
-        <v>0.4525790081973177</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X62" t="n">
-        <v>2.805769499759502</v>
+        <v>2.703999999999999</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.349492222681688</v>
+        <v>0.3421293532338304</v>
       </c>
       <c r="Z62" t="n">
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.025089798095648</v>
+        <v>0.9399999999999998</v>
       </c>
     </row>
     <row r="63">
@@ -5644,76 +5644,76 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1.157017247097845</v>
+        <v>1.148139303482587</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3396725274725275</v>
+        <v>0.384</v>
       </c>
       <c r="F63" t="n">
-        <v>2.247999999999998</v>
+        <v>2.252000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>2.886348258706461</v>
+        <v>2.907144278606956</v>
       </c>
       <c r="H63" t="n">
-        <v>1.259471957671958</v>
+        <v>1.343999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>5.282666666666653</v>
+        <v>5.380000000000003</v>
       </c>
       <c r="J63" t="n">
-        <v>3.01256074660551</v>
+        <v>2.975601990049741</v>
       </c>
       <c r="K63" t="n">
-        <v>1.284752805527805</v>
+        <v>1.244000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>5.230258297258297</v>
+        <v>5.123999999999999</v>
       </c>
       <c r="M63" t="n">
-        <v>2.75105925136223</v>
+        <v>2.726009950248753</v>
       </c>
       <c r="N63" t="n">
-        <v>0.9885459207459208</v>
+        <v>1.008</v>
       </c>
       <c r="O63" t="n">
-        <v>5.014475402375401</v>
+        <v>4.848000000000003</v>
       </c>
       <c r="P63" t="n">
-        <v>2.357947879649359</v>
+        <v>2.379920398009939</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.9651857142857142</v>
+        <v>0.8119999999999997</v>
       </c>
       <c r="R63" t="n">
-        <v>4.277233923191821</v>
+        <v>4.135999999999999</v>
       </c>
       <c r="S63" t="n">
-        <v>1.856078348517152</v>
+        <v>1.856378109452734</v>
       </c>
       <c r="T63" t="n">
-        <v>0.6683613954672779</v>
+        <v>0.4479999999999998</v>
       </c>
       <c r="U63" t="n">
-        <v>3.509293950123949</v>
+        <v>3.440000000000002</v>
       </c>
       <c r="V63" t="n">
-        <v>1.233464473185742</v>
+        <v>1.230248756218904</v>
       </c>
       <c r="W63" t="n">
-        <v>0.3299986630818359</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X63" t="n">
-        <v>2.388763328541534</v>
+        <v>2.364000000000003</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.2928391165863794</v>
+        <v>0.2960796019900485</v>
       </c>
       <c r="Z63" t="n">
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.8622466253483012</v>
+        <v>0.8039999999999998</v>
       </c>
     </row>
     <row r="64">
@@ -5727,76 +5727,76 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01522793219061933</v>
+        <v>0.003164179104477606</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07465396825396821</v>
+        <v>0.044</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01822778898823673</v>
+        <v>0.01357213930348257</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2009333333333329</v>
+        <v>0.2</v>
       </c>
       <c r="J64" t="n">
-        <v>0.02817237370147813</v>
+        <v>0.02409950248756217</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.2008</v>
+        <v>0.2</v>
       </c>
       <c r="M64" t="n">
-        <v>0.033530044858403</v>
+        <v>0.03108457711442774</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0.2720865800865801</v>
+        <v>0.2359999999999999</v>
       </c>
       <c r="P64" t="n">
-        <v>0.03862219095820811</v>
+        <v>0.03771144278606949</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0.2001481481481477</v>
+        <v>0.2</v>
       </c>
       <c r="S64" t="n">
-        <v>0.03915043466323895</v>
+        <v>0.04159203980099492</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0.2401493506493505</v>
+        <v>0.3</v>
       </c>
       <c r="V64" t="n">
-        <v>0.03530304035378654</v>
+        <v>0.03478606965174121</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0.1999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.008864196058225905</v>
+        <v>0.0131144278606965</v>
       </c>
       <c r="Z64" t="n">
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.1906978939277285</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="65">
@@ -5837,49 +5837,49 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1.902445060412222</v>
+        <v>1.896597014925371</v>
       </c>
       <c r="N65" t="n">
-        <v>0.5973333333333324</v>
+        <v>0.6000000000000005</v>
       </c>
       <c r="O65" t="n">
         <v>3.572000000000001</v>
       </c>
       <c r="P65" t="n">
-        <v>3.30863180341428</v>
+        <v>3.281532338308446</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.340705510425249</v>
+        <v>1.428</v>
       </c>
       <c r="R65" t="n">
-        <v>5.708487852887851</v>
+        <v>5.752000000000002</v>
       </c>
       <c r="S65" t="n">
-        <v>2.772689724178519</v>
+        <v>2.795980099502481</v>
       </c>
       <c r="T65" t="n">
-        <v>1.15258813558617</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="U65" t="n">
-        <v>4.811559982174686</v>
+        <v>4.912000000000003</v>
       </c>
       <c r="V65" t="n">
-        <v>1.779685165691135</v>
+        <v>1.766746268656715</v>
       </c>
       <c r="W65" t="n">
-        <v>0.5709563611760492</v>
+        <v>0.6280000000000006</v>
       </c>
       <c r="X65" t="n">
-        <v>3.293463295021112</v>
+        <v>3.248</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.4467363459886108</v>
+        <v>0.448059701492536</v>
       </c>
       <c r="Z65" t="n">
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>1.19913366509837</v>
+        <v>1.200000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -5893,76 +5893,76 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02695378460437601</v>
+        <v>0.04782089552238787</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2653333333333335</v>
+        <v>0.2199999999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5484640132669969</v>
+        <v>0.5213731343283576</v>
       </c>
       <c r="H66" t="n">
-        <v>0.02019047619047619</v>
+        <v>0.004</v>
       </c>
       <c r="I66" t="n">
-        <v>1.426600000000003</v>
+        <v>1.396</v>
       </c>
       <c r="J66" t="n">
-        <v>1.214986211798151</v>
+        <v>1.202069651741293</v>
       </c>
       <c r="K66" t="n">
-        <v>0.3087492063492065</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="L66" t="n">
-        <v>2.622066666666666</v>
+        <v>2.647999999999998</v>
       </c>
       <c r="M66" t="n">
-        <v>1.664452736318409</v>
+        <v>1.664616915422887</v>
       </c>
       <c r="N66" t="n">
-        <v>0.4033333333333325</v>
+        <v>0.4039999999999999</v>
       </c>
       <c r="O66" t="n">
-        <v>2.972666666666666</v>
+        <v>3.124000000000001</v>
       </c>
       <c r="P66" t="n">
-        <v>1.743793380859051</v>
+        <v>1.791820895522388</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.4973333333333333</v>
+        <v>0.5840000000000005</v>
       </c>
       <c r="R66" t="n">
-        <v>3.292279365079359</v>
+        <v>3.380000000000003</v>
       </c>
       <c r="S66" t="n">
-        <v>1.599429914529913</v>
+        <v>1.628756218905471</v>
       </c>
       <c r="T66" t="n">
-        <v>0.4266494598565378</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="U66" t="n">
-        <v>3.132827838827839</v>
+        <v>3.179999999999999</v>
       </c>
       <c r="V66" t="n">
-        <v>1.108573422265958</v>
+        <v>1.106547263681591</v>
       </c>
       <c r="W66" t="n">
-        <v>0.25809324009324</v>
+        <v>0.3360000000000001</v>
       </c>
       <c r="X66" t="n">
-        <v>2.289336663336663</v>
+        <v>2.248000000000002</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.3011458163726807</v>
+        <v>0.3025671641791038</v>
       </c>
       <c r="Z66" t="n">
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.8370599037364777</v>
+        <v>0.8039999999999998</v>
       </c>
     </row>
     <row r="67">
@@ -5976,76 +5976,76 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.002407960199004968</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2188794993287522</v>
+        <v>0.2235024875621882</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0005470085470085471</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.6348190476190465</v>
+        <v>0.6360000000000007</v>
       </c>
       <c r="J67" t="n">
-        <v>0.877255721393033</v>
+        <v>0.8713233830845759</v>
       </c>
       <c r="K67" t="n">
-        <v>0.01039316239316239</v>
+        <v>0.012</v>
       </c>
       <c r="L67" t="n">
-        <v>1.978466666666667</v>
+        <v>1.931999999999999</v>
       </c>
       <c r="M67" t="n">
-        <v>1.366567164179105</v>
+        <v>1.377014925373134</v>
       </c>
       <c r="N67" t="n">
-        <v>0.2574666666666665</v>
+        <v>0.292</v>
       </c>
       <c r="O67" t="n">
-        <v>2.979215873015872</v>
+        <v>2.928</v>
       </c>
       <c r="P67" t="n">
-        <v>1.616006825540407</v>
+        <v>1.562965174129353</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.3487333333333329</v>
+        <v>0.32</v>
       </c>
       <c r="R67" t="n">
-        <v>3.207023472823469</v>
+        <v>3.152000000000001</v>
       </c>
       <c r="S67" t="n">
-        <v>1.590023668095308</v>
+        <v>1.572119402985074</v>
       </c>
       <c r="T67" t="n">
-        <v>0.4030478725549506</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="U67" t="n">
-        <v>3.053341403041404</v>
+        <v>3.083999999999999</v>
       </c>
       <c r="V67" t="n">
-        <v>1.156445984363893</v>
+        <v>1.086606965174128</v>
       </c>
       <c r="W67" t="n">
-        <v>0.2059677960665236</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="X67" t="n">
-        <v>2.322833333333333</v>
+        <v>2.232000000000001</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.3066125931190595</v>
+        <v>0.2955621890547247</v>
       </c>
       <c r="Z67" t="n">
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.8525639593999231</v>
+        <v>0.8039999999999998</v>
       </c>
     </row>
     <row r="68">
@@ -6068,67 +6068,67 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.01139668343491931</v>
+        <v>0.003840796019900495</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="J68" t="n">
-        <v>0.02733916696966736</v>
+        <v>0.02599004975124373</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0003333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2088</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="M68" t="n">
-        <v>0.04267128730372791</v>
+        <v>0.03956218905472622</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>0.248180785500609</v>
+        <v>0.2039999999999999</v>
       </c>
       <c r="P68" t="n">
-        <v>0.05823246149356765</v>
+        <v>0.05858706467661677</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3986666666666657</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="S68" t="n">
-        <v>0.08948872592305422</v>
+        <v>0.0853532338308457</v>
       </c>
       <c r="T68" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0.3999999999999999</v>
       </c>
       <c r="V68" t="n">
-        <v>0.07214847485295239</v>
+        <v>0.07516417910447759</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>0.3677918498168494</v>
+        <v>0.368</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.02140090627120687</v>
+        <v>0.01695522388059698</v>
       </c>
       <c r="Z68" t="n">
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.148826488326488</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6151,67 +6151,67 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.7587175234936415</v>
+        <v>0.7490945273631833</v>
       </c>
       <c r="H69" t="n">
-        <v>0.004000000000000001</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>1.793333333333338</v>
+        <v>1.759999999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>3.413563953805593</v>
+        <v>3.432358208955218</v>
       </c>
       <c r="K69" t="n">
-        <v>1.402966443665969</v>
+        <v>1.44</v>
       </c>
       <c r="L69" t="n">
-        <v>5.795296299512894</v>
+        <v>6.075999999999996</v>
       </c>
       <c r="M69" t="n">
-        <v>3.299517307852005</v>
+        <v>3.267164179104475</v>
       </c>
       <c r="N69" t="n">
-        <v>1.451158641518612</v>
+        <v>1.448</v>
       </c>
       <c r="O69" t="n">
-        <v>5.657239608757254</v>
+        <v>5.544000000000002</v>
       </c>
       <c r="P69" t="n">
-        <v>2.938410403609649</v>
+        <v>2.91231840796019</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.182986197668488</v>
+        <v>1.184000000000001</v>
       </c>
       <c r="R69" t="n">
-        <v>5.039703270627818</v>
+        <v>4.928000000000003</v>
       </c>
       <c r="S69" t="n">
-        <v>2.358506944465144</v>
+        <v>2.310208955223871</v>
       </c>
       <c r="T69" t="n">
-        <v>0.9718521841040629</v>
+        <v>0.9519999999999998</v>
       </c>
       <c r="U69" t="n">
-        <v>4.27308715728716</v>
+        <v>4.151999999999997</v>
       </c>
       <c r="V69" t="n">
-        <v>1.447174983612296</v>
+        <v>1.41502487562189</v>
       </c>
       <c r="W69" t="n">
-        <v>0.452664711734454</v>
+        <v>0.4519999999999997</v>
       </c>
       <c r="X69" t="n">
-        <v>2.796673818579231</v>
+        <v>2.727999999999998</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.3487126239169649</v>
+        <v>0.3553432835820888</v>
       </c>
       <c r="Z69" t="n">
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>1.009225192407922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.0007164179104477609</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6243,34 +6243,34 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0.01444627274556158</v>
+        <v>0.01886567164179099</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1540925451559935</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="M70" t="n">
-        <v>0.03162384321062399</v>
+        <v>0.0359999999999998</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0.2005637350463493</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="P70" t="n">
-        <v>0.05280064021920906</v>
+        <v>0.05928358208955217</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3893333333333325</v>
+        <v>0.392</v>
       </c>
       <c r="S70" t="n">
-        <v>0.07263683298459407</v>
+        <v>0.07631840796019886</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
@@ -6279,22 +6279,22 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="V70" t="n">
-        <v>0.06006490864515441</v>
+        <v>0.05952238805970146</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>0.2886051864801861</v>
+        <v>0.3280000000000001</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.02135213590933055</v>
+        <v>0.02161194029850741</v>
       </c>
       <c r="Z70" t="n">
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.1996391776391772</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -6326,58 +6326,58 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.001502929795467107</v>
+        <v>0.0008557213930348241</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="M71" t="n">
-        <v>0.07103405985943292</v>
+        <v>0.07138308457711424</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0.2988</v>
+        <v>0.2879999999999999</v>
       </c>
       <c r="P71" t="n">
-        <v>0.2958677327647466</v>
+        <v>0.2969154228855708</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0.9602222222222222</v>
+        <v>0.956</v>
       </c>
       <c r="S71" t="n">
-        <v>0.4597172470978432</v>
+        <v>0.4656716417910441</v>
       </c>
       <c r="T71" t="n">
-        <v>0.0002761904761904762</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>1.220000000000001</v>
+        <v>1.204000000000001</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4608076285240456</v>
+        <v>0.4635223880597008</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>1.202000000000002</v>
+        <v>1.200000000000001</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.1521101555713496</v>
+        <v>0.1518606965174128</v>
       </c>
       <c r="Z71" t="n">
         <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.5999999999999991</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
     <row r="72">
@@ -6400,67 +6400,67 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.0008358208955223875</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="J72" t="n">
-        <v>0.06678614790405824</v>
+        <v>0.0653731343283581</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.3346126984126983</v>
+        <v>0.2919999999999999</v>
       </c>
       <c r="M72" t="n">
-        <v>0.2744928689883908</v>
+        <v>0.2771542288557207</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0.8479999999999995</v>
+        <v>0.8239999999999996</v>
       </c>
       <c r="P72" t="n">
-        <v>0.5198507462686555</v>
+        <v>0.5244577114427847</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>1.223701587301587</v>
+        <v>1.244000000000001</v>
       </c>
       <c r="S72" t="n">
-        <v>0.6505820895522391</v>
+        <v>0.6518208955223881</v>
       </c>
       <c r="T72" t="n">
-        <v>0.01524126984126984</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>1.663333333333333</v>
+        <v>1.607999999999999</v>
       </c>
       <c r="V72" t="n">
-        <v>0.5755819237147581</v>
+        <v>0.5789651741293519</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>1.456163564213564</v>
+        <v>1.416</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.1756563215667692</v>
+        <v>0.1654527363184077</v>
       </c>
       <c r="Z72" t="n">
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.5999999999999991</v>
+        <v>0.6000000000000005</v>
       </c>
     </row>
   </sheetData>
